--- a/VT_Model_DMD_V01.xlsx
+++ b/VT_Model_DMD_V01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aghedupl.sharepoint.com/sites/Prywatny238/Shared Documents/General/Wymiana_Danych/TIMES_STUDENTS_MID/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\TIMES_STUDENTS_FULL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{14AA8D79-DD38-494B-91FC-0BD5B1215B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12CCA8DE-F2C6-4C3B-A715-F303090EB8AB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CBF9CFC-438D-4B79-B395-3F82A3EE1F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="18696" tabRatio="901" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14148" yWindow="2760" windowWidth="31452" windowHeight="15468" tabRatio="901" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BALANCE" sheetId="142" r:id="rId1"/>
@@ -600,7 +600,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="177">
   <si>
     <t>Moc osiągalna elektryczna netto</t>
   </si>
@@ -3274,7 +3274,7 @@
   <dimension ref="B2:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3482,9 +3482,7 @@
       <c r="H15" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="I15" s="82" t="s">
-        <v>42</v>
-      </c>
+      <c r="I15" s="82"/>
     </row>
     <row r="20" ht="13.65" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -4105,26 +4103,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -4319,30 +4297,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CA861A5-7E6A-41A7-8E0B-DCD15A12B5CB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
-    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
-    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
-    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
-    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
-    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A551C1B6-05FC-4B61-8034-B37F3A0576E1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05865FE0-0765-4B1C-A3D1-E35560639ECC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4359,4 +4334,27 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A551C1B6-05FC-4B61-8034-B37F3A0576E1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CA861A5-7E6A-41A7-8E0B-DCD15A12B5CB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
+    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
+    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
+    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
+    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
+    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>